--- a/testing/TypeApprovalRegister+testcase.docs.xlsx
+++ b/testing/TypeApprovalRegister+testcase.docs.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IS00759329\Desktop\Telefonica\ApplicationPattern\ApplicationPattern_v2\TypeApprovalRegister\TypeApprovalRegister-5\testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78D06BB8-4672-4207-AACC-975D068BD73A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A3CA94E-B28A-4DC1-9E9D-13C46CF70FEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="285" yWindow="270" windowWidth="20205" windowHeight="10650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="612" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="613" uniqueCount="238">
   <si>
     <t>Testcases</t>
   </si>
@@ -842,19 +842,6 @@
 - PUT remote-protocol with original value</t>
   </si>
   <si>
-    <t>#### Preparation:
-- GETing CC (/core-model-1-4:control-construct)
-- searching CC for op-s of /v1/bequeath-your-data-and-die, storing operation-key
-- find http-s from CC
-- find op-c using callback "PromptForBequeathingDataCausesTransferOfListOfAlreadyGrantedTypeApprovals"
-- find http-c ,tcp-c  of the corresponding op-c, store them
- POST /v1/bequeath-your-data-and-die with
-   - new-application-release according to http-c                                                     -new-application-protocol with  generated alternative of exisitng value
-   - new-application-address and  new-application-port with random generated dummy values (assure sufficiently high probability that set does not exist!), BUT new-application-name attribute with random dummy value that matches the specified pattern.
-    -operation-key from above
-    - reasonable parameters</t>
-  </si>
-  <si>
     <t>##Gets new-application-name update trigger update-ltp to ALT?</t>
   </si>
   <si>
@@ -1057,19 +1044,6 @@
 - find http-s from CC
 - find op-c using callback "PromptForBequeathingDataCausesTransferOfListOfAlreadyGrantedTypeApprovals"
 - find http-c ,tcp-c  of the corresponding op-c, store them
- POST /v1/bequeath-your-data-and-die with
-   - new-application-name according to http-c                                                            - new-application-release according to chosen http-c                                         -  new-application-protocol attribute with random dummy value differing from specified range.       
-   - new-application-address and new-application-port with random generated dummy values (assure sufficiently high probability that set does not exist!),
-    -operation-key from above
-    - reasonable parameters</t>
-  </si>
-  <si>
-    <t>#### Preparation:
-- GETing CC (/core-model-1-4:control-construct)
-- searching CC for op-s of /v1/bequeath-your-data-and-die, storing operation-key
-- find http-s from CC
-- find op-c using callback "PromptForBequeathingDataCausesTransferOfListOfAlreadyGrantedTypeApprovals"
-- find http-c ,tcp-c  of the corresponding op-c, store them
 - POST /v1/bequeath-your-data-and-die with
    - new-application-name according to chosen http-c                                                              - new-application-release according to chosen http-c                                       -new-application-protocol with  generated alternative of exisitng value
    -  new-application-port  with random generated dummy values (assure sufficiently high probability that set does not exist!), BUT new-application-address attribute with random dummy value differing from specified pattern in different non-matching ways.
@@ -1114,21 +1088,6 @@
    - new-application-name according to http-c
    - new-application-release attribute according to chosen http-c                  - new-application-protocol  with alternative value of existing value 
    - new-application-address and new-application-port  according to chosen tcp-c
-    -operation-key from above
-    - reasonable parameters</t>
-  </si>
-  <si>
-    <t>#### Preparation:
-- GETing CC (/core-model-1-4:control-construct)
-- searching CC for op-s of /v1/bequeath-your-data-and-die, storing operation-key
-- find http-s from CC
-- find op-c using callback "PromptForBequeathingDataCausesTransferOfListOfAlreadyGrantedTypeApprovals"
-- find http-c ,tcp-c  of the corresponding op-c, store them
- POST /v1/bequeath-your-data-and-die with
-   - new-application-name according to http-c
-   - new-application-release attribute according to chosen http-c
-   - new-application-address  with random generated dummy values (assure sufficiently high probability that set does not exist!)
-- new-application-port and new-application-protocol according to chosen tcp-c
     -operation-key from above
     - reasonable parameters</t>
   </si>
@@ -1166,21 +1125,6 @@
     <t>#### Testing:
 - checking for ResponseCode==204
 - checking for ResponseHeaders (x-correlator, exec-time, backend-time and life-cycle-state) being present and checking for correctness of type of each parameter.</t>
-  </si>
-  <si>
-    <t>#### Preparation:
-- GETing CC (/core-model-1-4:control-construct)
-   - find op-c using callback "ServiceRequestCausesLoggingRequest"                           - find http-c ,tcp-c  of the corresponding op-c, store them
-   - searching CC for op-s of /v1/bequeath-your-data-and-die, storing operation-key
-  - find http-s from CC, store them
-   - find op-c using callback "PromptForEmbeddingCausesRequestForBequeathingData"
-- find http-c ,tcp-c  of the corresponding op-c, store them
-- GETting EaTL/CC (while using protocol , IP and port from above)
-   - searching CC for op-c of /v1/list-records-of-flow, storing operation-key
-- POST /v1/bequeath-your-data-and-die with  
-     - all attributes according to chosen http-c
-     - operation-key from above
-   - all parameters with realistic values (incl. DummyXCorrelator)</t>
   </si>
   <si>
     <t>#### Testing:
@@ -1488,6 +1432,62 @@
 - checking for ResponseCode==204
 - GETing CC (/core-model-1-4:control-construct)
 - searching CC for http-c fetched above and check if the application-name is updated with dummyValue.</t>
+  </si>
+  <si>
+    <t>#### Preparation:
+- GETing CC (/core-model-1-4:control-construct)
+   - find op-c using callback "ServiceRequestCausesLoggingRequest"                           - find http-c ,tcp-c  of the corresponding op-c, store them
+   - searching CC for op-s of /v1/bequeath-your-data-and-die, storing operation-key
+  - find http-s from CC, store them
+   - find op-c using callback "PromptForEmbeddingCausesRequestForBequeathingData"
+- find http-c ,tcp-c  of the corresponding op-c, store them
+- GETting EaTL/CC (while using protocol , IP and port from above)
+   - searching CC for op-c of /v1/list-records-of-flow, storing operation-key
+- POST OldRelease/v1/bequeath-your-data-and-die with  
+     - all attributes according to chosen http-c
+     - operation-key from above
+   - all parameters with realistic values (incl. DummyXCorrelator)</t>
+  </si>
+  <si>
+    <t>#### Preparation:
+- GETing CC (/core-model-1-4:control-construct)
+- searching CC for op-s of /v1/bequeath-your-data-and-die, storing operation-key
+- find http-s from CC
+- find op-c using callback "PromptForBequeathingDataCausesTransferOfListOfAlreadyGrantedTypeApprovals"
+- find http-c ,tcp-c  of the corresponding op-c, store them
+ POST /v1/bequeath-your-data-and-die with
+   - new-application-name according to http-c                                                            - new-application-release according to chosen http-c                                         -  new-application-protocol attribute with random dummy value other than the enum values.       
+   - new-application-address and new-application-port with random generated dummy values (assure sufficiently high probability that set does not exist!),
+    -operation-key from above
+    - reasonable parameters</t>
+  </si>
+  <si>
+    <t>#### Preparation:
+- GETing CC (/core-model-1-4:control-construct)
+- searching CC for op-s of /v1/bequeath-your-data-and-die, storing operation-key
+- find http-s from CC
+- find op-c using callback "PromptForBequeathingDataCausesTransferOfListOfAlreadyGrantedTypeApprovals"
+- find http-c ,tcp-c  of the corresponding op-c, store them
+ POST /v1/bequeath-your-data-and-die with
+   - new-application-release according to http-c                                                     -new-application-protocol with  generated alternative of exisitng value
+   - new-application-address and  new-application-port with random generated dummy values (assure sufficiently high probability that set does not exist!), BUT new-application-name attribute with random dummy value that matches the specified length.
+    -operation-key from above
+    - reasonable parameters</t>
+  </si>
+  <si>
+    <t>#### Preparation:
+- GETing CC (/core-model-1-4:control-construct)
+- searching CC for op-s of /v1/bequeath-your-data-and-die, storing operation-key
+- find http-s from CC
+- find op-c using callback "PromptForBequeathingDataCausesTransferOfListOfAlreadyGrantedTypeApprovals"
+- find http-c ,tcp-c  of the corresponding op-c, store them
+ POST /v1/bequeath-your-data-and-die with
+   - new-application-name according to http-c
+   - new-application-release attribute according to chosen http-c
+   - new-application-address  with random generated dummy values (assure sufficiently high probability that set does not exist!) that matches the specified pattern
+- new-application-port and new-application-protocol according to chosen tcp-c
+    -operation-key from above
+    - reasonable parameters</t>
   </si>
 </sst>
 </file>
@@ -1972,20 +1972,20 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2307,10 +2307,10 @@
   <dimension ref="A1:DD340"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B178" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B99" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="C131" sqref="C131"/>
+      <selection pane="bottomRight" activeCell="C101" sqref="C101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="70.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2548,7 +2548,7 @@
         <v>32</v>
       </c>
       <c r="C5" s="36" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D5" s="36" t="str">
         <f>CONCATENATE("#### Preparation:
@@ -2666,25 +2666,25 @@
         <v>33</v>
       </c>
       <c r="C6" s="70" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D6" s="69" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E6" s="69" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F6" s="69" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G6" s="69" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H6" s="69" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="I6" s="69" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="J6"/>
       <c r="K6"/>
@@ -2795,7 +2795,7 @@
         <v>36</v>
       </c>
       <c r="C9" s="38" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D9" s="36" t="str">
         <f>CONCATENATE("#### Preparation:
@@ -3059,12 +3059,12 @@
       <c r="S12"/>
     </row>
     <row r="13" spans="1:108" ht="300" x14ac:dyDescent="0.25">
-      <c r="A13" s="76"/>
+      <c r="A13" s="74"/>
       <c r="B13" s="22" t="s">
         <v>143</v>
       </c>
       <c r="C13" s="36" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D13" s="36" t="str">
         <f>CONCATENATE("#### Preparation:
@@ -3182,7 +3182,7 @@
       <c r="S13"/>
     </row>
     <row r="14" spans="1:108" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="76"/>
+      <c r="A14" s="74"/>
       <c r="B14" s="22" t="s">
         <v>38</v>
       </c>
@@ -3232,7 +3232,7 @@
       <c r="S14"/>
     </row>
     <row r="15" spans="1:108" ht="60" x14ac:dyDescent="0.25">
-      <c r="A15" s="76"/>
+      <c r="A15" s="74"/>
       <c r="B15" s="20" t="str">
         <f t="shared" ref="B15" si="10">$B7</f>
         <v>#### Clearing:
@@ -3332,7 +3332,7 @@
         <v>41</v>
       </c>
       <c r="C17" s="36" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D17" s="36" t="str">
         <f>CONCATENATE("#### Preparation:
@@ -3598,7 +3598,7 @@
         <v>43</v>
       </c>
       <c r="C21" s="36" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D21" s="36" t="str">
         <f>CONCATENATE("#### Preparation:
@@ -3862,7 +3862,7 @@
         <v>45</v>
       </c>
       <c r="C25" s="36" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D25" s="36" t="str">
         <f>CONCATENATE("#### Preparation:
@@ -4107,7 +4107,7 @@
         <v>48</v>
       </c>
       <c r="C29" s="36" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D29" s="36" t="str">
         <f>CONCATENATE("#### Preparation:
@@ -4440,7 +4440,7 @@
         <v>51</v>
       </c>
       <c r="C34" s="40" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D34" s="40" t="str">
         <f>$C34</f>
@@ -4461,10 +4461,10 @@
 - checking for ResponseHeaders (x-correlator, exec-time, backend-time and life-cycle-state) being present and checking for correctness of type of each parameter.</v>
       </c>
       <c r="G34" s="40" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="H34" s="40" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="I34" s="40" t="str">
         <f>$C34</f>
@@ -4674,7 +4674,7 @@
         <v>53</v>
       </c>
       <c r="C38" s="41" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D38" s="41" t="str">
         <f>$C38</f>
@@ -4695,10 +4695,10 @@
 - checking for response headers containing x-correlator==dummyXCorrelator</v>
       </c>
       <c r="G38" s="41" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="H38" s="41" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="I38" s="41" t="str">
         <f>$C38</f>
@@ -4815,7 +4815,7 @@
       <c r="S40"/>
     </row>
     <row r="41" spans="1:19" ht="255" x14ac:dyDescent="0.25">
-      <c r="A41" s="73"/>
+      <c r="A41" s="72"/>
       <c r="B41" s="22" t="s">
         <v>50</v>
       </c>
@@ -4903,7 +4903,7 @@
       <c r="S41"/>
     </row>
     <row r="42" spans="1:19" ht="75" x14ac:dyDescent="0.25">
-      <c r="A42" s="73"/>
+      <c r="A42" s="72"/>
       <c r="B42" s="22" t="s">
         <v>55</v>
       </c>
@@ -4974,7 +4974,7 @@
       <c r="S42"/>
     </row>
     <row r="43" spans="1:19" ht="60" x14ac:dyDescent="0.25">
-      <c r="A43" s="73"/>
+      <c r="A43" s="72"/>
       <c r="B43" s="20" t="str">
         <f>$B7</f>
         <v>#### Clearing:
@@ -5065,7 +5065,7 @@
       <c r="S44"/>
     </row>
     <row r="45" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A45" s="73"/>
+      <c r="A45" s="72"/>
       <c r="B45" s="22" t="s">
         <v>57</v>
       </c>
@@ -5101,12 +5101,12 @@
       <c r="S45"/>
     </row>
     <row r="46" spans="1:19" ht="315" x14ac:dyDescent="0.25">
-      <c r="A46" s="73"/>
+      <c r="A46" s="72"/>
       <c r="B46" s="22" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C46" s="40" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D46" s="36" t="str">
         <f>CONCATENATE("#### Preparation:
@@ -5263,7 +5263,7 @@
       <c r="S46"/>
     </row>
     <row r="47" spans="1:19" ht="150" x14ac:dyDescent="0.25">
-      <c r="A47" s="73"/>
+      <c r="A47" s="72"/>
       <c r="B47" s="22" t="s">
         <v>58</v>
       </c>
@@ -5390,7 +5390,7 @@
       <c r="S47"/>
     </row>
     <row r="48" spans="1:19" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="73"/>
+      <c r="A48" s="72"/>
       <c r="B48" s="23" t="str">
         <f>$B7</f>
         <v>#### Clearing:
@@ -5503,7 +5503,7 @@
       <c r="S50"/>
     </row>
     <row r="51" spans="1:19" ht="120" x14ac:dyDescent="0.25">
-      <c r="A51" s="73"/>
+      <c r="A51" s="72"/>
       <c r="B51" s="26" t="s">
         <v>60</v>
       </c>
@@ -5565,7 +5565,7 @@
       <c r="S51"/>
     </row>
     <row r="52" spans="1:19" ht="90" x14ac:dyDescent="0.25">
-      <c r="A52" s="73"/>
+      <c r="A52" s="72"/>
       <c r="B52" s="27" t="s">
         <v>61</v>
       </c>
@@ -5601,7 +5601,7 @@
       <c r="S52"/>
     </row>
     <row r="53" spans="1:19" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A53" s="73"/>
+      <c r="A53" s="72"/>
       <c r="B53" s="28" t="s">
         <v>62</v>
       </c>
@@ -5632,7 +5632,7 @@
       </c>
     </row>
     <row r="54" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A54" s="77" t="s">
+      <c r="A54" s="73" t="s">
         <v>19</v>
       </c>
       <c r="B54" s="25" t="s">
@@ -5668,7 +5668,7 @@
       <c r="S54"/>
     </row>
     <row r="55" spans="1:19" ht="135" x14ac:dyDescent="0.25">
-      <c r="A55" s="77"/>
+      <c r="A55" s="73"/>
       <c r="B55" s="26" t="s">
         <v>64</v>
       </c>
@@ -5702,7 +5702,7 @@
       <c r="S55"/>
     </row>
     <row r="56" spans="1:19" ht="75" x14ac:dyDescent="0.25">
-      <c r="A56" s="77"/>
+      <c r="A56" s="73"/>
       <c r="B56" s="27" t="s">
         <v>65</v>
       </c>
@@ -5736,7 +5736,7 @@
       <c r="S56"/>
     </row>
     <row r="57" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A57" s="77"/>
+      <c r="A57" s="73"/>
       <c r="B57" s="28" t="s">
         <v>62</v>
       </c>
@@ -5847,12 +5847,12 @@
       <c r="S59"/>
     </row>
     <row r="60" spans="1:19" ht="285" x14ac:dyDescent="0.25">
-      <c r="A60" s="73"/>
+      <c r="A60" s="72"/>
       <c r="B60" s="22" t="s">
         <v>68</v>
       </c>
       <c r="C60" s="36" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D60" s="36" t="str">
         <f>CONCATENATE("#### Preparation:
@@ -5983,14 +5983,16 @@
       <c r="S60"/>
     </row>
     <row r="61" spans="1:19" ht="60" x14ac:dyDescent="0.25">
-      <c r="A61" s="73"/>
+      <c r="A61" s="72"/>
       <c r="B61" s="22" t="s">
         <v>69</v>
       </c>
       <c r="C61" s="41" t="s">
         <v>69</v>
       </c>
-      <c r="D61" s="41"/>
+      <c r="D61" s="41" t="s">
+        <v>69</v>
+      </c>
       <c r="E61" s="41" t="s">
         <v>69</v>
       </c>
@@ -6017,7 +6019,7 @@
       <c r="S61"/>
     </row>
     <row r="62" spans="1:19" ht="75" x14ac:dyDescent="0.25">
-      <c r="A62" s="73"/>
+      <c r="A62" s="72"/>
       <c r="B62" s="29" t="s">
         <v>70</v>
       </c>
@@ -6103,7 +6105,7 @@
         <v>72</v>
       </c>
       <c r="C64" s="36" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D64" s="36" t="str">
         <f>CONCATENATE("#### Preparation:
@@ -6367,12 +6369,12 @@
       <c r="S68"/>
     </row>
     <row r="69" spans="1:19" ht="270" x14ac:dyDescent="0.25">
-      <c r="A69" s="73"/>
+      <c r="A69" s="72"/>
       <c r="B69" s="22" t="s">
         <v>75</v>
       </c>
       <c r="C69" s="36" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D69" s="36" t="str">
         <f>CONCATENATE("#### Preparation:
@@ -6473,7 +6475,7 @@
       <c r="S69"/>
     </row>
     <row r="70" spans="1:19" ht="45" x14ac:dyDescent="0.25">
-      <c r="A70" s="73"/>
+      <c r="A70" s="72"/>
       <c r="B70" s="22" t="s">
         <v>73</v>
       </c>
@@ -6517,7 +6519,7 @@
       <c r="S70"/>
     </row>
     <row r="71" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A71" s="73"/>
+      <c r="A71" s="72"/>
       <c r="B71" s="22" t="str">
         <f>$B7</f>
         <v>#### Clearing:
@@ -6598,7 +6600,7 @@
       <c r="A73" s="14"/>
       <c r="B73" s="22"/>
       <c r="C73" s="36" t="s">
-        <v>201</v>
+        <v>235</v>
       </c>
       <c r="D73" s="36" t="str">
         <f>CONCATENATE("#### Preparation:
@@ -6650,7 +6652,7 @@
       <c r="G73"/>
       <c r="H73"/>
       <c r="I73" s="36" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="J73"/>
       <c r="K73"/>
@@ -6752,7 +6754,7 @@
       <c r="A77" s="14"/>
       <c r="B77" s="22"/>
       <c r="C77" s="36" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D77"/>
       <c r="E77"/>
@@ -6870,7 +6872,7 @@
       <c r="A81" s="14"/>
       <c r="B81" s="22"/>
       <c r="C81" s="36" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D81"/>
       <c r="E81"/>
@@ -6959,7 +6961,7 @@
       <c r="S83"/>
     </row>
     <row r="84" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A84" s="75" t="s">
+      <c r="A84" s="77" t="s">
         <v>23</v>
       </c>
       <c r="B84" s="21" t="s">
@@ -7004,7 +7006,7 @@
       <c r="S84"/>
     </row>
     <row r="85" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A85" s="75"/>
+      <c r="A85" s="77"/>
       <c r="B85" s="22"/>
       <c r="C85" s="55" t="s">
         <v>170</v>
@@ -7038,12 +7040,12 @@
       <c r="S85"/>
     </row>
     <row r="86" spans="1:19" ht="270" x14ac:dyDescent="0.25">
-      <c r="A86" s="75"/>
+      <c r="A86" s="77"/>
       <c r="B86" s="22" t="s">
         <v>77</v>
       </c>
       <c r="C86" s="36" t="s">
-        <v>181</v>
+        <v>236</v>
       </c>
       <c r="D86" s="36" t="s">
         <v>147</v>
@@ -7061,7 +7063,7 @@
         <v>103</v>
       </c>
       <c r="I86" s="36" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="J86"/>
       <c r="K86"/>
@@ -7074,12 +7076,12 @@
       <c r="S86"/>
     </row>
     <row r="87" spans="1:19" ht="90" x14ac:dyDescent="0.25">
-      <c r="A87" s="75"/>
+      <c r="A87" s="77"/>
       <c r="B87" s="22" t="s">
         <v>78</v>
       </c>
       <c r="C87" s="41" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="D87" s="41" t="s">
         <v>148</v>
@@ -7110,7 +7112,7 @@
       <c r="S87"/>
     </row>
     <row r="88" spans="1:19" ht="75" x14ac:dyDescent="0.25">
-      <c r="A88" s="75"/>
+      <c r="A88" s="77"/>
       <c r="B88" s="22" t="s">
         <v>62</v>
       </c>
@@ -7146,7 +7148,7 @@
       <c r="S88"/>
     </row>
     <row r="89" spans="1:19" ht="75" x14ac:dyDescent="0.25">
-      <c r="A89" s="75"/>
+      <c r="A89" s="77"/>
       <c r="B89" s="27" t="s">
         <v>66</v>
       </c>
@@ -7207,7 +7209,7 @@
       <c r="A91" s="14"/>
       <c r="B91" s="22"/>
       <c r="C91" s="36" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D91"/>
       <c r="E91"/>
@@ -7217,7 +7219,7 @@
       <c r="G91"/>
       <c r="H91"/>
       <c r="I91" s="36" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="J91"/>
       <c r="K91"/>
@@ -7334,14 +7336,14 @@
       <c r="A96" s="14"/>
       <c r="B96" s="22"/>
       <c r="C96" s="36" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E96"/>
       <c r="F96"/>
       <c r="G96"/>
       <c r="H96"/>
       <c r="I96" s="14" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="J96"/>
       <c r="K96"/>
@@ -7442,15 +7444,15 @@
       <c r="Q100"/>
       <c r="S100"/>
     </row>
-    <row r="101" spans="1:19" ht="270" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:19" ht="285" x14ac:dyDescent="0.25">
       <c r="A101" s="14"/>
       <c r="B101" s="22"/>
       <c r="C101" s="36" t="s">
-        <v>206</v>
+        <v>237</v>
       </c>
       <c r="G101" s="50"/>
       <c r="I101" s="36" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="J101"/>
       <c r="K101"/>
@@ -7540,11 +7542,11 @@
       <c r="A106" s="14"/>
       <c r="B106" s="22"/>
       <c r="C106" s="36" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="G106" s="50"/>
       <c r="I106" s="36" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="N106" s="50"/>
       <c r="O106" s="50"/>
@@ -7671,7 +7673,7 @@
       <c r="S111" s="50"/>
     </row>
     <row r="112" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A112" s="73"/>
+      <c r="A112" s="72"/>
       <c r="B112" s="22" t="s">
         <v>80</v>
       </c>
@@ -7710,21 +7712,21 @@
       <c r="S112" s="50"/>
     </row>
     <row r="113" spans="1:19" ht="285" x14ac:dyDescent="0.25">
-      <c r="A113" s="73"/>
+      <c r="A113" s="72"/>
       <c r="B113" s="22" t="s">
         <v>81</v>
       </c>
       <c r="C113" s="66" t="s">
-        <v>212</v>
+        <v>234</v>
       </c>
       <c r="D113" s="66" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="E113" s="68" t="s">
         <v>103</v>
       </c>
       <c r="F113" s="66" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="G113" t="s">
         <v>103</v>
@@ -7743,21 +7745,21 @@
       <c r="S113" s="50"/>
     </row>
     <row r="114" spans="1:19" ht="165" x14ac:dyDescent="0.25">
-      <c r="A114" s="73"/>
+      <c r="A114" s="72"/>
       <c r="B114" s="22" t="s">
         <v>82</v>
       </c>
       <c r="C114" s="46" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="D114" s="46" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="E114" s="68" t="s">
         <v>103</v>
       </c>
       <c r="F114" s="46" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="G114" t="s">
         <v>103</v>
@@ -7776,7 +7778,7 @@
       <c r="S114" s="50"/>
     </row>
     <row r="115" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A115" s="73"/>
+      <c r="A115" s="72"/>
       <c r="B115" s="19" t="str">
         <f>$B7</f>
         <v>#### Clearing:
@@ -7917,7 +7919,7 @@
       <c r="S118" s="50"/>
     </row>
     <row r="119" spans="1:19" ht="60" x14ac:dyDescent="0.25">
-      <c r="A119" s="73"/>
+      <c r="A119" s="72"/>
       <c r="B119" s="27" t="s">
         <v>85</v>
       </c>
@@ -7950,7 +7952,7 @@
       <c r="S119" s="50"/>
     </row>
     <row r="120" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A120" s="73"/>
+      <c r="A120" s="72"/>
       <c r="B120" s="27" t="s">
         <v>62</v>
       </c>
@@ -8026,7 +8028,7 @@
       <c r="A123" s="71"/>
       <c r="B123" s="22"/>
       <c r="C123" s="55" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D123" s="50" t="s">
         <v>103</v>
@@ -8054,7 +8056,7 @@
       <c r="S123" s="50"/>
     </row>
     <row r="124" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A124" s="74"/>
+      <c r="A124" s="76"/>
       <c r="B124" s="22" t="s">
         <v>57</v>
       </c>
@@ -8087,12 +8089,12 @@
       <c r="S124" s="50"/>
     </row>
     <row r="125" spans="1:19" ht="360" x14ac:dyDescent="0.25">
-      <c r="A125" s="74"/>
+      <c r="A125" s="76"/>
       <c r="B125" s="22" t="s">
         <v>87</v>
       </c>
       <c r="C125" s="36" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="D125" s="50" t="s">
         <v>103</v>
@@ -8110,7 +8112,7 @@
         <v>103</v>
       </c>
       <c r="I125" s="36" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="N125" s="50"/>
       <c r="O125" s="50"/>
@@ -8120,12 +8122,12 @@
       <c r="S125" s="50"/>
     </row>
     <row r="126" spans="1:19" ht="165" x14ac:dyDescent="0.25">
-      <c r="A126" s="74"/>
+      <c r="A126" s="76"/>
       <c r="B126" s="22" t="s">
         <v>88</v>
       </c>
       <c r="C126" s="41" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="D126"/>
       <c r="E126"/>
@@ -8133,7 +8135,7 @@
       <c r="G126"/>
       <c r="H126"/>
       <c r="I126" s="41" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="N126" s="50"/>
       <c r="O126" s="50"/>
@@ -8143,12 +8145,12 @@
       <c r="S126" s="50"/>
     </row>
     <row r="127" spans="1:19" ht="75" x14ac:dyDescent="0.25">
-      <c r="A127" s="74"/>
+      <c r="A127" s="76"/>
       <c r="B127" s="22" t="s">
         <v>62</v>
       </c>
       <c r="C127" s="37" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D127"/>
       <c r="E127"/>
@@ -8200,7 +8202,7 @@
       <c r="G129"/>
       <c r="H129"/>
       <c r="I129" s="55" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="N129" s="50"/>
       <c r="O129" s="50"/>
@@ -8235,7 +8237,7 @@
       <c r="A131"/>
       <c r="B131" s="22"/>
       <c r="C131" s="36" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="D131"/>
       <c r="E131"/>
@@ -8243,7 +8245,7 @@
       <c r="G131"/>
       <c r="H131"/>
       <c r="I131" s="36" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="J131"/>
       <c r="N131" s="50"/>
@@ -8257,7 +8259,7 @@
       <c r="A132"/>
       <c r="B132" s="22"/>
       <c r="C132" s="41" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="D132"/>
       <c r="E132"/>
@@ -8265,7 +8267,7 @@
       <c r="G132"/>
       <c r="H132"/>
       <c r="I132" s="41" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="J132"/>
       <c r="N132" s="52"/>
@@ -8279,7 +8281,7 @@
       <c r="A133"/>
       <c r="B133" s="22"/>
       <c r="C133" s="37" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D133"/>
       <c r="E133"/>
@@ -8287,7 +8289,7 @@
       <c r="G133"/>
       <c r="H133"/>
       <c r="I133" s="41" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="J133"/>
       <c r="N133" s="58"/>
@@ -8322,7 +8324,7 @@
       <c r="A135"/>
       <c r="B135" s="22"/>
       <c r="C135" s="55" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D135"/>
       <c r="E135"/>
@@ -8330,7 +8332,7 @@
       <c r="G135"/>
       <c r="H135"/>
       <c r="I135" s="55" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="J135"/>
       <c r="N135"/>
@@ -8364,7 +8366,7 @@
       <c r="A137"/>
       <c r="B137" s="22"/>
       <c r="C137" s="36" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="D137"/>
       <c r="E137"/>
@@ -8372,7 +8374,7 @@
       <c r="G137"/>
       <c r="H137"/>
       <c r="I137" s="36" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="J137"/>
       <c r="N137"/>
@@ -8385,7 +8387,7 @@
       <c r="A138"/>
       <c r="B138" s="22"/>
       <c r="C138" s="41" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="D138"/>
       <c r="E138"/>
@@ -8393,7 +8395,7 @@
       <c r="G138"/>
       <c r="H138"/>
       <c r="I138" s="41" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="J138"/>
       <c r="N138"/>
@@ -8414,7 +8416,7 @@
       <c r="G139"/>
       <c r="H139"/>
       <c r="I139" s="41" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="J139"/>
       <c r="N139"/>
@@ -8490,7 +8492,7 @@
       <c r="A143"/>
       <c r="B143" s="22"/>
       <c r="C143" s="36" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="D143"/>
       <c r="E143"/>
@@ -8498,7 +8500,7 @@
       <c r="G143"/>
       <c r="H143"/>
       <c r="I143" s="36" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="J143"/>
       <c r="N143"/>
@@ -8511,7 +8513,7 @@
       <c r="A144"/>
       <c r="B144" s="22"/>
       <c r="C144" s="41" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="D144"/>
       <c r="E144"/>
@@ -8519,7 +8521,7 @@
       <c r="G144"/>
       <c r="H144"/>
       <c r="I144" s="41" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="J144"/>
       <c r="N144"/>
@@ -8616,7 +8618,7 @@
       <c r="A149"/>
       <c r="B149" s="22"/>
       <c r="C149" s="36" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="D149"/>
       <c r="E149"/>
@@ -8624,7 +8626,7 @@
       <c r="G149"/>
       <c r="H149"/>
       <c r="I149" s="36" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="J149"/>
       <c r="N149"/>
@@ -8637,7 +8639,7 @@
       <c r="A150"/>
       <c r="B150" s="22"/>
       <c r="C150" s="41" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="D150"/>
       <c r="E150"/>
@@ -8645,7 +8647,7 @@
       <c r="G150"/>
       <c r="H150"/>
       <c r="I150" s="41" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="J150"/>
       <c r="N150"/>
@@ -8697,13 +8699,15 @@
       <c r="S152"/>
     </row>
     <row r="153" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A153" s="72" t="s">
+      <c r="A153" s="75" t="s">
         <v>27</v>
       </c>
       <c r="B153" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="C153" s="38"/>
+      <c r="C153" s="43" t="s">
+        <v>89</v>
+      </c>
       <c r="D153" s="43" t="s">
         <v>89</v>
       </c>
@@ -8729,11 +8733,11 @@
       <c r="Q153"/>
       <c r="S153"/>
     </row>
-    <row r="154" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A154" s="72"/>
+    <row r="154" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A154" s="75"/>
       <c r="B154" s="22"/>
-      <c r="C154" s="43" t="s">
-        <v>89</v>
+      <c r="C154" s="46" t="s">
+        <v>103</v>
       </c>
       <c r="D154" s="46" t="s">
         <v>103</v>
@@ -8761,7 +8765,7 @@
       <c r="S154"/>
     </row>
     <row r="155" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A155" s="73"/>
+      <c r="A155" s="72"/>
       <c r="B155" s="22" t="s">
         <v>57</v>
       </c>
@@ -8794,7 +8798,7 @@
       <c r="S155"/>
     </row>
     <row r="156" spans="1:19" ht="135" x14ac:dyDescent="0.25">
-      <c r="A156" s="73"/>
+      <c r="A156" s="72"/>
       <c r="B156" s="22" t="s">
         <v>90</v>
       </c>
@@ -8827,13 +8831,11 @@
       <c r="S156"/>
     </row>
     <row r="157" spans="1:19" ht="150" x14ac:dyDescent="0.25">
-      <c r="A157" s="73"/>
+      <c r="A157" s="72"/>
       <c r="B157" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="C157" s="46" t="s">
-        <v>103</v>
-      </c>
+      <c r="C157" s="40"/>
       <c r="D157"/>
       <c r="E157"/>
       <c r="F157"/>
@@ -8848,7 +8850,7 @@
       <c r="S157"/>
     </row>
     <row r="158" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A158" s="73"/>
+      <c r="A158" s="72"/>
       <c r="B158" s="29" t="s">
         <v>62</v>
       </c>
@@ -8886,13 +8888,15 @@
       <c r="S159"/>
     </row>
     <row r="160" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A160" s="72" t="s">
+      <c r="A160" s="75" t="s">
         <v>28</v>
       </c>
       <c r="B160" s="21" t="s">
         <v>92</v>
       </c>
-      <c r="C160" s="40"/>
+      <c r="C160" s="43" t="s">
+        <v>92</v>
+      </c>
       <c r="D160" s="43" t="s">
         <v>92</v>
       </c>
@@ -8918,12 +8922,10 @@
       <c r="Q160"/>
       <c r="S160"/>
     </row>
-    <row r="161" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A161" s="72"/>
+    <row r="161" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A161" s="75"/>
       <c r="B161" s="22"/>
-      <c r="C161" s="43" t="s">
-        <v>92</v>
-      </c>
+      <c r="C161" s="60"/>
       <c r="D161" s="60"/>
       <c r="E161" s="60"/>
       <c r="F161" s="60"/>
@@ -8938,11 +8940,13 @@
       <c r="S161"/>
     </row>
     <row r="162" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A162" s="73"/>
+      <c r="A162" s="72"/>
       <c r="B162" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="C162" s="60"/>
+      <c r="C162" s="40" t="s">
+        <v>103</v>
+      </c>
       <c r="D162" s="40" t="s">
         <v>103</v>
       </c>
@@ -8969,7 +8973,7 @@
       <c r="S162"/>
     </row>
     <row r="163" spans="1:19" ht="135" x14ac:dyDescent="0.25">
-      <c r="A163" s="73"/>
+      <c r="A163" s="72"/>
       <c r="B163" s="22" t="s">
         <v>90</v>
       </c>
@@ -9002,13 +9006,11 @@
       <c r="S163"/>
     </row>
     <row r="164" spans="1:19" ht="150" x14ac:dyDescent="0.25">
-      <c r="A164" s="73"/>
+      <c r="A164" s="72"/>
       <c r="B164" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="C164" s="40" t="s">
-        <v>103</v>
-      </c>
+      <c r="C164" s="40"/>
       <c r="D164"/>
       <c r="E164"/>
       <c r="F164"/>
@@ -9023,7 +9025,7 @@
       <c r="S164"/>
     </row>
     <row r="165" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A165" s="73"/>
+      <c r="A165" s="72"/>
       <c r="B165" s="29" t="s">
         <v>62</v>
       </c>
@@ -9046,7 +9048,7 @@
       <c r="B166" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="C166" s="40"/>
+      <c r="C166" s="61"/>
       <c r="D166"/>
       <c r="E166"/>
       <c r="F166"/>
@@ -9061,13 +9063,15 @@
       <c r="S166"/>
     </row>
     <row r="167" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A167" s="72" t="s">
+      <c r="A167" s="75" t="s">
         <v>29</v>
       </c>
       <c r="B167" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="C167" s="61"/>
+      <c r="C167" s="43" t="s">
+        <v>92</v>
+      </c>
       <c r="D167" s="43" t="s">
         <v>92</v>
       </c>
@@ -9094,12 +9098,12 @@
       <c r="S167"/>
     </row>
     <row r="168" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A168" s="73"/>
+      <c r="A168" s="72"/>
       <c r="B168" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="C168" s="43" t="s">
-        <v>92</v>
+      <c r="C168" s="60" t="s">
+        <v>103</v>
       </c>
       <c r="D168" s="60" t="s">
         <v>103</v>
@@ -9127,11 +9131,11 @@
       <c r="S168"/>
     </row>
     <row r="169" spans="1:19" ht="135" x14ac:dyDescent="0.25">
-      <c r="A169" s="73"/>
+      <c r="A169" s="72"/>
       <c r="B169" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="C169" s="60" t="s">
+      <c r="C169" s="40" t="s">
         <v>103</v>
       </c>
       <c r="D169" s="40" t="s">
@@ -9160,13 +9164,11 @@
       <c r="S169"/>
     </row>
     <row r="170" spans="1:19" ht="150" x14ac:dyDescent="0.25">
-      <c r="A170" s="73"/>
+      <c r="A170" s="72"/>
       <c r="B170" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="C170" s="40" t="s">
-        <v>103</v>
-      </c>
+      <c r="C170" s="40"/>
       <c r="D170"/>
       <c r="E170"/>
       <c r="F170"/>
@@ -9181,7 +9183,7 @@
       <c r="S170"/>
     </row>
     <row r="171" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A171" s="73"/>
+      <c r="A171" s="72"/>
       <c r="B171" s="29" t="s">
         <v>62</v>
       </c>
@@ -9219,13 +9221,15 @@
       <c r="S172"/>
     </row>
     <row r="173" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A173" s="72" t="s">
+      <c r="A173" s="75" t="s">
         <v>30</v>
       </c>
       <c r="B173" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="C173" s="40"/>
+      <c r="C173" s="43" t="s">
+        <v>96</v>
+      </c>
       <c r="D173" s="43" t="s">
         <v>96</v>
       </c>
@@ -9252,12 +9256,12 @@
       <c r="S173"/>
     </row>
     <row r="174" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A174" s="72"/>
+      <c r="A174" s="75"/>
       <c r="B174" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="C174" s="43" t="s">
-        <v>96</v>
+      <c r="C174" t="s">
+        <v>103</v>
       </c>
       <c r="D174" t="s">
         <v>103</v>
@@ -9285,7 +9289,7 @@
       <c r="S174"/>
     </row>
     <row r="175" spans="1:19" ht="135" x14ac:dyDescent="0.25">
-      <c r="A175" s="73"/>
+      <c r="A175" s="72"/>
       <c r="B175" s="22" t="s">
         <v>90</v>
       </c>
@@ -9318,13 +9322,11 @@
       <c r="S175"/>
     </row>
     <row r="176" spans="1:19" ht="150" x14ac:dyDescent="0.25">
-      <c r="A176" s="73"/>
+      <c r="A176" s="72"/>
       <c r="B176" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="C176" t="s">
-        <v>103</v>
-      </c>
+      <c r="C176"/>
       <c r="D176"/>
       <c r="E176"/>
       <c r="F176"/>
@@ -9339,11 +9341,13 @@
       <c r="S176"/>
     </row>
     <row r="177" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A177" s="73"/>
+      <c r="A177" s="72"/>
       <c r="B177" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="C177"/>
+      <c r="C177" s="40" t="s">
+        <v>103</v>
+      </c>
       <c r="D177"/>
       <c r="E177"/>
       <c r="F177"/>
@@ -9358,7 +9362,7 @@
       <c r="S177"/>
     </row>
     <row r="178" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A178" s="73"/>
+      <c r="A178" s="72"/>
       <c r="B178" s="30" t="s">
         <v>66</v>
       </c>
@@ -9379,10 +9383,8 @@
       <c r="S178"/>
     </row>
     <row r="179" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A179" s="73"/>
-      <c r="C179" s="40" t="s">
-        <v>103</v>
-      </c>
+      <c r="A179" s="72"/>
+      <c r="C179" s="40"/>
       <c r="D179"/>
       <c r="E179"/>
       <c r="F179"/>
@@ -9398,7 +9400,7 @@
     </row>
     <row r="180" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A180" s="16"/>
-      <c r="C180" s="40"/>
+      <c r="C180" s="61"/>
       <c r="D180"/>
       <c r="E180"/>
       <c r="F180"/>
@@ -9413,7 +9415,7 @@
       <c r="S180"/>
     </row>
     <row r="181" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="C181" s="61"/>
+      <c r="C181" s="40"/>
       <c r="D181"/>
       <c r="E181"/>
       <c r="F181"/>
@@ -9428,7 +9430,7 @@
       <c r="S181"/>
     </row>
     <row r="182" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="C182" s="40"/>
+      <c r="C182"/>
       <c r="D182"/>
       <c r="E182"/>
       <c r="F182"/>
@@ -9443,7 +9445,7 @@
       <c r="S182"/>
     </row>
     <row r="183" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="C183"/>
+      <c r="C183" s="40"/>
       <c r="D183"/>
       <c r="E183"/>
       <c r="F183"/>
@@ -9488,7 +9490,7 @@
       <c r="S185"/>
     </row>
     <row r="186" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="C186" s="40"/>
+      <c r="C186" s="61"/>
       <c r="D186"/>
       <c r="E186"/>
       <c r="F186"/>
@@ -9503,7 +9505,7 @@
       <c r="S186"/>
     </row>
     <row r="187" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="C187" s="61"/>
+      <c r="C187" s="40"/>
       <c r="D187"/>
       <c r="E187"/>
       <c r="F187"/>
@@ -9518,7 +9520,7 @@
       <c r="S187"/>
     </row>
     <row r="188" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="C188" s="40"/>
+      <c r="C188"/>
       <c r="D188"/>
       <c r="E188"/>
       <c r="F188"/>
@@ -9533,7 +9535,7 @@
       <c r="S188"/>
     </row>
     <row r="189" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="C189"/>
+      <c r="C189" s="60"/>
       <c r="D189"/>
       <c r="E189"/>
       <c r="F189"/>
@@ -9548,7 +9550,7 @@
       <c r="S189"/>
     </row>
     <row r="190" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="C190" s="60"/>
+      <c r="C190" s="40"/>
       <c r="D190"/>
       <c r="E190"/>
       <c r="F190"/>
@@ -9593,7 +9595,7 @@
       <c r="S192"/>
     </row>
     <row r="193" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C193" s="40"/>
+      <c r="C193" s="62"/>
       <c r="D193"/>
       <c r="E193"/>
       <c r="F193"/>
@@ -9608,7 +9610,7 @@
       <c r="S193"/>
     </row>
     <row r="194" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C194" s="62"/>
+      <c r="C194" s="40"/>
       <c r="D194"/>
       <c r="E194"/>
       <c r="F194"/>
@@ -9623,7 +9625,7 @@
       <c r="S194"/>
     </row>
     <row r="195" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C195" s="40"/>
+      <c r="C195" s="57"/>
       <c r="D195"/>
       <c r="E195"/>
       <c r="F195"/>
@@ -9758,7 +9760,7 @@
       <c r="S203"/>
     </row>
     <row r="204" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C204" s="57"/>
+      <c r="C204"/>
       <c r="D204"/>
       <c r="E204"/>
       <c r="F204"/>
@@ -10988,7 +10990,6 @@
       <c r="S285"/>
     </row>
     <row r="286" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C286"/>
       <c r="J286"/>
       <c r="N286"/>
       <c r="O286"/>
@@ -11410,20 +11411,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="A44:A48"/>
-    <mergeCell ref="A50:A53"/>
-    <mergeCell ref="A54:A57"/>
-    <mergeCell ref="A59:A62"/>
-    <mergeCell ref="A24:A27"/>
-    <mergeCell ref="A28:A31"/>
-    <mergeCell ref="A32:A35"/>
-    <mergeCell ref="A36:A39"/>
-    <mergeCell ref="A40:A43"/>
-    <mergeCell ref="A20:A23"/>
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="A16:A19"/>
     <mergeCell ref="A63:A66"/>
     <mergeCell ref="A167:A171"/>
     <mergeCell ref="A173:A179"/>
@@ -11434,6 +11421,20 @@
     <mergeCell ref="A160:A165"/>
     <mergeCell ref="A84:A89"/>
     <mergeCell ref="A67:A71"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="A44:A48"/>
+    <mergeCell ref="A50:A53"/>
+    <mergeCell ref="A54:A57"/>
+    <mergeCell ref="A59:A62"/>
+    <mergeCell ref="A24:A27"/>
+    <mergeCell ref="A28:A31"/>
+    <mergeCell ref="A32:A35"/>
+    <mergeCell ref="A36:A39"/>
+    <mergeCell ref="A40:A43"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
